--- a/natmiOut/OldD2/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H2">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I2">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J2">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N2">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O2">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P2">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q2">
-        <v>264.6550502133161</v>
+        <v>268.4792201938825</v>
       </c>
       <c r="R2">
-        <v>264.6550502133161</v>
+        <v>1073.91688077553</v>
       </c>
       <c r="S2">
-        <v>0.03688624213516906</v>
+        <v>0.02223153296351048</v>
       </c>
       <c r="T2">
-        <v>0.03688624213516906</v>
+        <v>0.01720043729922992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H3">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I3">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J3">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N3">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O3">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P3">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q3">
-        <v>45.69378573899213</v>
+        <v>47.45182780768467</v>
       </c>
       <c r="R3">
-        <v>45.69378573899213</v>
+        <v>284.710966846108</v>
       </c>
       <c r="S3">
-        <v>0.006368561807086173</v>
+        <v>0.003929268244013628</v>
       </c>
       <c r="T3">
-        <v>0.006368561807086173</v>
+        <v>0.004560085814186222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H4">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I4">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J4">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N4">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O4">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P4">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q4">
-        <v>96.49393814762234</v>
+        <v>109.834368139254</v>
       </c>
       <c r="R4">
-        <v>96.49393814762234</v>
+        <v>659.006208835524</v>
       </c>
       <c r="S4">
-        <v>0.01344882239813816</v>
+        <v>0.009094880319046043</v>
       </c>
       <c r="T4">
-        <v>0.01344882239813816</v>
+        <v>0.01055500214010318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H5">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I5">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J5">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N5">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O5">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P5">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q5">
-        <v>140.4647431674683</v>
+        <v>141.6100690322542</v>
       </c>
       <c r="R5">
-        <v>140.4647431674683</v>
+        <v>849.660414193525</v>
       </c>
       <c r="S5">
-        <v>0.01957724412873825</v>
+        <v>0.01172608038485091</v>
       </c>
       <c r="T5">
-        <v>0.01957724412873825</v>
+        <v>0.01360862366687035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H6">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I6">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J6">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N6">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O6">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P6">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q6">
-        <v>127.444575601787</v>
+        <v>131.3663231960658</v>
       </c>
       <c r="R6">
-        <v>127.444575601787</v>
+        <v>788.197939176395</v>
       </c>
       <c r="S6">
-        <v>0.01776256100411587</v>
+        <v>0.01087784277054845</v>
       </c>
       <c r="T6">
-        <v>0.01776256100411587</v>
+        <v>0.01262420721275503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.1436069765319</v>
+        <v>13.2221155</v>
       </c>
       <c r="H7">
-        <v>13.1436069765319</v>
+        <v>26.444231</v>
       </c>
       <c r="I7">
-        <v>0.1111437902076709</v>
+        <v>0.06841318651461004</v>
       </c>
       <c r="J7">
-        <v>0.1111437902076709</v>
+        <v>0.06671361504230638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N7">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O7">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P7">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q7">
-        <v>122.6933414073522</v>
+        <v>127.4503843405788</v>
       </c>
       <c r="R7">
-        <v>122.6933414073522</v>
+        <v>509.8015373623151</v>
       </c>
       <c r="S7">
-        <v>0.01710035873442345</v>
+        <v>0.01055358183264054</v>
       </c>
       <c r="T7">
-        <v>0.01710035873442345</v>
+        <v>0.008165258909161685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H8">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I8">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J8">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N8">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O8">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P8">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q8">
-        <v>24.04125030142301</v>
+        <v>28.92911764926667</v>
       </c>
       <c r="R8">
-        <v>24.04125030142301</v>
+        <v>173.5747058956</v>
       </c>
       <c r="S8">
-        <v>0.003350744220205613</v>
+        <v>0.002395487561981525</v>
       </c>
       <c r="T8">
-        <v>0.003350744220205613</v>
+        <v>0.002780066966945819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H9">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I9">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J9">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N9">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O9">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P9">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q9">
-        <v>4.150820999959253</v>
+        <v>5.113019578684444</v>
       </c>
       <c r="R9">
-        <v>4.150820999959253</v>
+        <v>46.01717620816</v>
       </c>
       <c r="S9">
-        <v>0.0005785198065966774</v>
+        <v>0.0004233857027166222</v>
       </c>
       <c r="T9">
-        <v>0.0005785198065966774</v>
+        <v>0.0007370361414604802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H10">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I10">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J10">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N10">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O10">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P10">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q10">
-        <v>8.765504069191937</v>
+        <v>11.83485021872</v>
       </c>
       <c r="R10">
-        <v>8.765504069191937</v>
+        <v>106.51365196848</v>
       </c>
       <c r="S10">
-        <v>0.001221690291843731</v>
+        <v>0.0009799896713260715</v>
       </c>
       <c r="T10">
-        <v>0.001221690291843731</v>
+        <v>0.001705980625681942</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H11">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I11">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J11">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N11">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O11">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P11">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q11">
-        <v>12.75980959476243</v>
+        <v>15.25873899811111</v>
       </c>
       <c r="R11">
-        <v>12.75980959476243</v>
+        <v>137.328650983</v>
       </c>
       <c r="S11">
-        <v>0.001778395787012944</v>
+        <v>0.001263506199001689</v>
       </c>
       <c r="T11">
-        <v>0.001778395787012944</v>
+        <v>0.002199530422610659</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H12">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I12">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J12">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N12">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O12">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P12">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q12">
-        <v>11.57705828447867</v>
+        <v>14.15495700615555</v>
       </c>
       <c r="R12">
-        <v>11.57705828447867</v>
+        <v>127.3946130554</v>
       </c>
       <c r="S12">
-        <v>0.001613550071121065</v>
+        <v>0.001172107074253902</v>
       </c>
       <c r="T12">
-        <v>0.001613550071121065</v>
+        <v>0.002040421464030492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.19396453962107</v>
+        <v>1.424706666666667</v>
       </c>
       <c r="H13">
-        <v>1.19396453962107</v>
+        <v>4.27412</v>
       </c>
       <c r="I13">
-        <v>0.01009629582990297</v>
+        <v>0.007371643585723858</v>
       </c>
       <c r="J13">
-        <v>0.01009629582990297</v>
+        <v>0.01078276756562225</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N13">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O13">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P13">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q13">
-        <v>11.14545642984933</v>
+        <v>13.73300756896667</v>
       </c>
       <c r="R13">
-        <v>11.14545642984933</v>
+        <v>82.39804541380001</v>
       </c>
       <c r="S13">
-        <v>0.001553395653122943</v>
+        <v>0.001137167376444049</v>
       </c>
       <c r="T13">
-        <v>0.001553395653122943</v>
+        <v>0.001319731944892863</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H14">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I14">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J14">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N14">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O14">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P14">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q14">
-        <v>162.9343154112292</v>
+        <v>3.594961262613334</v>
       </c>
       <c r="R14">
-        <v>162.9343154112292</v>
+        <v>21.56976757568</v>
       </c>
       <c r="S14">
-        <v>0.02270893604917959</v>
+        <v>0.0002976822554632578</v>
       </c>
       <c r="T14">
-        <v>0.02270893604917959</v>
+        <v>0.00034547313799232</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H15">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I15">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J15">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N15">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O15">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P15">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q15">
-        <v>28.13128142436434</v>
+        <v>0.6353843052942223</v>
       </c>
       <c r="R15">
-        <v>28.13128142436434</v>
+        <v>5.718458747648</v>
       </c>
       <c r="S15">
-        <v>0.003920791450438292</v>
+        <v>5.261326041339407E-05</v>
       </c>
       <c r="T15">
-        <v>0.003920791450438292</v>
+        <v>9.158994787950588E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H16">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I16">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J16">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N16">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O16">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P16">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q16">
-        <v>59.40628656337381</v>
+        <v>1.470692214016</v>
       </c>
       <c r="R16">
-        <v>59.40628656337381</v>
+        <v>13.236229926144</v>
       </c>
       <c r="S16">
-        <v>0.008279738734483417</v>
+        <v>0.0001217812775657783</v>
       </c>
       <c r="T16">
-        <v>0.008279738734483417</v>
+        <v>0.0002119986630235473</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H17">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I17">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J17">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N17">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O17">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P17">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q17">
-        <v>86.47681859446358</v>
+        <v>1.896171749155556</v>
       </c>
       <c r="R17">
-        <v>86.47681859446358</v>
+        <v>17.0655457424</v>
       </c>
       <c r="S17">
-        <v>0.01205268846063373</v>
+        <v>0.0001570132865976999</v>
       </c>
       <c r="T17">
-        <v>0.01205268846063373</v>
+        <v>0.0002733310694467481</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H18">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I18">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J18">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N18">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O18">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P18">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q18">
-        <v>78.46098029043777</v>
+        <v>1.759007057457778</v>
       </c>
       <c r="R18">
-        <v>78.46098029043777</v>
+        <v>15.83106351712</v>
       </c>
       <c r="S18">
-        <v>0.01093548267763302</v>
+        <v>0.0001456553075231675</v>
       </c>
       <c r="T18">
-        <v>0.01093548267763302</v>
+        <v>0.0002535589301936537</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>8.091833513206581</v>
+        <v>0.1770453333333334</v>
       </c>
       <c r="H19">
-        <v>8.091833513206581</v>
+        <v>0.5311360000000001</v>
       </c>
       <c r="I19">
-        <v>0.06842543663950452</v>
+        <v>0.0009160588115324389</v>
       </c>
       <c r="J19">
-        <v>0.06842543663950452</v>
+        <v>0.001339952091596479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N19">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O19">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P19">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q19">
-        <v>75.53589312431457</v>
+        <v>1.706572278773334</v>
       </c>
       <c r="R19">
-        <v>75.53589312431457</v>
+        <v>10.23943367264</v>
       </c>
       <c r="S19">
-        <v>0.01052779926713649</v>
+        <v>0.0001413134239691413</v>
       </c>
       <c r="T19">
-        <v>0.01052779926713649</v>
+        <v>0.0001640003430607039</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>95.82827677160491</v>
+        <v>8.245523333333333</v>
       </c>
       <c r="H20">
-        <v>95.82827677160491</v>
+        <v>24.73657</v>
       </c>
       <c r="I20">
-        <v>0.8103344773229215</v>
+        <v>0.04266356058634507</v>
       </c>
       <c r="J20">
-        <v>0.8103344773229215</v>
+        <v>0.06240552082785333</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N20">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O20">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P20">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q20">
-        <v>1929.564498248301</v>
+        <v>167.4279486231833</v>
       </c>
       <c r="R20">
-        <v>1929.564498248301</v>
+        <v>1004.5676917391</v>
       </c>
       <c r="S20">
-        <v>0.2689326473855125</v>
+        <v>0.01386394059153354</v>
       </c>
       <c r="T20">
-        <v>0.2689326473855125</v>
+        <v>0.01608970294061536</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>95.82827677160491</v>
+        <v>8.245523333333333</v>
       </c>
       <c r="H21">
-        <v>95.82827677160491</v>
+        <v>24.73657</v>
       </c>
       <c r="I21">
-        <v>0.8103344773229215</v>
+        <v>0.04266356058634507</v>
       </c>
       <c r="J21">
-        <v>0.8103344773229215</v>
+        <v>0.06240552082785333</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N21">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O21">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P21">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q21">
-        <v>333.1472672879586</v>
+        <v>29.59172103719555</v>
       </c>
       <c r="R21">
-        <v>333.1472672879586</v>
+        <v>266.32548933476</v>
       </c>
       <c r="S21">
-        <v>0.04643233052967916</v>
+        <v>0.002450354709799658</v>
       </c>
       <c r="T21">
-        <v>0.04643233052967916</v>
+        <v>0.004265613999084507</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>95.82827677160491</v>
+        <v>8.245523333333333</v>
       </c>
       <c r="H22">
-        <v>95.82827677160491</v>
+        <v>24.73657</v>
       </c>
       <c r="I22">
-        <v>0.8103344773229215</v>
+        <v>0.04266356058634507</v>
       </c>
       <c r="J22">
-        <v>0.8103344773229215</v>
+        <v>0.06240552082785333</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N22">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O22">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P22">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q22">
-        <v>703.5243695359164</v>
+        <v>68.49447392091999</v>
       </c>
       <c r="R22">
-        <v>703.5243695359164</v>
+        <v>616.45026528828</v>
       </c>
       <c r="S22">
-        <v>0.09805356150119775</v>
+        <v>0.005671713265896689</v>
       </c>
       <c r="T22">
-        <v>0.09805356150119775</v>
+        <v>0.009873402984901023</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>95.82827677160491</v>
+        <v>8.245523333333333</v>
       </c>
       <c r="H23">
-        <v>95.82827677160491</v>
+        <v>24.73657</v>
       </c>
       <c r="I23">
-        <v>0.8103344773229215</v>
+        <v>0.04266356058634507</v>
       </c>
       <c r="J23">
-        <v>0.8103344773229215</v>
+        <v>0.06240552082785333</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N23">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O23">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P23">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q23">
-        <v>1024.109615339112</v>
+        <v>88.31031073963887</v>
       </c>
       <c r="R23">
-        <v>1024.109615339112</v>
+        <v>794.7927966567499</v>
       </c>
       <c r="S23">
-        <v>0.1427350629202263</v>
+        <v>0.007312571836316998</v>
       </c>
       <c r="T23">
-        <v>0.1427350629202263</v>
+        <v>0.01272983403976448</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>95.82827677160491</v>
+        <v>8.245523333333333</v>
       </c>
       <c r="H24">
-        <v>95.82827677160491</v>
+        <v>24.73657</v>
       </c>
       <c r="I24">
-        <v>0.8103344773229215</v>
+        <v>0.04266356058634507</v>
       </c>
       <c r="J24">
-        <v>0.8103344773229215</v>
+        <v>0.06240552082785333</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N24">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O24">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P24">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q24">
-        <v>929.1813187669026</v>
+        <v>81.92214650729443</v>
       </c>
       <c r="R24">
-        <v>929.1813187669026</v>
+        <v>737.29931856565</v>
       </c>
       <c r="S24">
-        <v>0.1295044514884046</v>
+        <v>0.006783597252715611</v>
       </c>
       <c r="T24">
-        <v>0.1295044514884046</v>
+        <v>0.01180898720075542</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.245523333333333</v>
+      </c>
+      <c r="H25">
+        <v>24.73657</v>
+      </c>
+      <c r="I25">
+        <v>0.04266356058634507</v>
+      </c>
+      <c r="J25">
+        <v>0.06240552082785333</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.6391825</v>
+      </c>
+      <c r="N25">
+        <v>19.278365</v>
+      </c>
+      <c r="O25">
+        <v>0.1542623925343217</v>
+      </c>
+      <c r="P25">
+        <v>0.1223926915665369</v>
+      </c>
+      <c r="Q25">
+        <v>79.48010421800834</v>
+      </c>
+      <c r="R25">
+        <v>476.88062530805</v>
+      </c>
+      <c r="S25">
+        <v>0.00658138293008258</v>
+      </c>
+      <c r="T25">
+        <v>0.00763797966273255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>170.199132</v>
+      </c>
+      <c r="H26">
+        <v>340.398264</v>
+      </c>
+      <c r="I26">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J26">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.305315</v>
+      </c>
+      <c r="N26">
+        <v>40.61063</v>
+      </c>
+      <c r="O26">
+        <v>0.3249597642811566</v>
+      </c>
+      <c r="P26">
+        <v>0.2578249925194772</v>
+      </c>
+      <c r="Q26">
+        <v>3455.94698798658</v>
+      </c>
+      <c r="R26">
+        <v>13823.78795194632</v>
+      </c>
+      <c r="S26">
+        <v>0.2861711209086679</v>
+      </c>
+      <c r="T26">
+        <v>0.2214093121746938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>170.199132</v>
+      </c>
+      <c r="H27">
+        <v>340.398264</v>
+      </c>
+      <c r="I27">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J27">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.588822666666667</v>
+      </c>
+      <c r="N27">
+        <v>10.766468</v>
+      </c>
+      <c r="O27">
+        <v>0.0574343696616808</v>
+      </c>
+      <c r="P27">
+        <v>0.06835315117153294</v>
+      </c>
+      <c r="Q27">
+        <v>610.814502768592</v>
+      </c>
+      <c r="R27">
+        <v>3664.887016611552</v>
+      </c>
+      <c r="S27">
+        <v>0.0505787477447375</v>
+      </c>
+      <c r="T27">
+        <v>0.05869882526892223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>170.199132</v>
+      </c>
+      <c r="H28">
+        <v>340.398264</v>
+      </c>
+      <c r="I28">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J28">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.306868</v>
+      </c>
+      <c r="N28">
+        <v>24.920604</v>
+      </c>
+      <c r="O28">
+        <v>0.1329404575695912</v>
+      </c>
+      <c r="P28">
+        <v>0.1582136140188136</v>
+      </c>
+      <c r="Q28">
+        <v>1413.821723238576</v>
+      </c>
+      <c r="R28">
+        <v>8482.930339431456</v>
+      </c>
+      <c r="S28">
+        <v>0.1170720930357566</v>
+      </c>
+      <c r="T28">
+        <v>0.1358672296051039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>170.199132</v>
+      </c>
+      <c r="H29">
+        <v>340.398264</v>
+      </c>
+      <c r="I29">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J29">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10.71009166666667</v>
+      </c>
+      <c r="N29">
+        <v>32.130275</v>
+      </c>
+      <c r="O29">
+        <v>0.1714008801847979</v>
+      </c>
+      <c r="P29">
+        <v>0.203985703041882</v>
+      </c>
+      <c r="Q29">
+        <v>1822.8483053071</v>
+      </c>
+      <c r="R29">
+        <v>10937.0898318426</v>
+      </c>
+      <c r="S29">
+        <v>0.1509417084780306</v>
+      </c>
+      <c r="T29">
+        <v>0.1751743838431898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>95.82827677160491</v>
-      </c>
-      <c r="H25">
-        <v>95.82827677160491</v>
-      </c>
-      <c r="I25">
-        <v>0.8103344773229215</v>
-      </c>
-      <c r="J25">
-        <v>0.8103344773229215</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>9.334830357178429</v>
-      </c>
-      <c r="N25">
-        <v>9.334830357178429</v>
-      </c>
-      <c r="O25">
-        <v>0.1538579771525842</v>
-      </c>
-      <c r="P25">
-        <v>0.1538579771525842</v>
-      </c>
-      <c r="Q25">
-        <v>894.540707083674</v>
-      </c>
-      <c r="R25">
-        <v>894.540707083674</v>
-      </c>
-      <c r="S25">
-        <v>0.1246764234979013</v>
-      </c>
-      <c r="T25">
-        <v>0.1246764234979013</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>170.199132</v>
+      </c>
+      <c r="H30">
+        <v>340.398264</v>
+      </c>
+      <c r="I30">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J30">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.935348333333332</v>
+      </c>
+      <c r="N30">
+        <v>29.806045</v>
+      </c>
+      <c r="O30">
+        <v>0.1590021357684519</v>
+      </c>
+      <c r="P30">
+        <v>0.1892298476817572</v>
+      </c>
+      <c r="Q30">
+        <v>1690.98766245098</v>
+      </c>
+      <c r="R30">
+        <v>10145.92597470588</v>
+      </c>
+      <c r="S30">
+        <v>0.1400229333634108</v>
+      </c>
+      <c r="T30">
+        <v>0.1625026728740226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>170.199132</v>
+      </c>
+      <c r="H31">
+        <v>340.398264</v>
+      </c>
+      <c r="I31">
+        <v>0.8806355505017887</v>
+      </c>
+      <c r="J31">
+        <v>0.8587581444726216</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>9.6391825</v>
+      </c>
+      <c r="N31">
+        <v>19.278365</v>
+      </c>
+      <c r="O31">
+        <v>0.1542623925343217</v>
+      </c>
+      <c r="P31">
+        <v>0.1223926915665369</v>
+      </c>
+      <c r="Q31">
+        <v>1640.58049468959</v>
+      </c>
+      <c r="R31">
+        <v>6562.32197875836</v>
+      </c>
+      <c r="S31">
+        <v>0.1358489469711854</v>
+      </c>
+      <c r="T31">
+        <v>0.1051057207066891</v>
       </c>
     </row>
   </sheetData>
